--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3138022.932635756</v>
+        <v>3136135.351119354</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494967.2308851469</v>
+        <v>738917.6935437133</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43.95772706123027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>160.696875290557</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933836</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6.728407874396941</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>50.52782706844018</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>148.5491842911104</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186255</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>29.3599436637278</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>64.60218603196218</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>14.33571678054053</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>4.440065804380572</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113155</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>88.76636539236227</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>124.3303543718002</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>246.7083340210947</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -2053,16 +2053,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>237.6821551249382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>24.29718497126768</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
-        <v>203.843519215191</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>53.2185167755243</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.14756717471029</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>31.44776415445389</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583893</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151911</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>1.042680388413939</v>
       </c>
       <c r="E31" t="n">
-        <v>1.144232944150958</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2534.829014967155</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>2182.06035969704</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1791.921027721229</v>
       </c>
     </row>
     <row r="3">
@@ -4389,16 +4389,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4407,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>229.739153672332</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>229.739153672332</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>229.739153672332</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>229.739153672332</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>229.739153672332</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>229.739153672332</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340174</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936057</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>439.1214116936057</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>439.1214116936057</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>432.1759109444022</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2547.099409916091</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2293.337624554182</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>1962.274737210612</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1609.506081940498</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1609.506081940498</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>381.6292235663335</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>231.5125841539978</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>83.59949057160466</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>83.59949057160466</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>83.59949057160466</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>83.59949057160466</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>83.59949057160466</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2388.358616186807</v>
+        <v>1919.063478780785</v>
       </c>
       <c r="C8" t="n">
-        <v>2019.396099246395</v>
+        <v>1550.100961840373</v>
       </c>
       <c r="D8" t="n">
-        <v>1661.130400639645</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>1275.342148041401</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
-        <v>864.3562432517931</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>446.39243514998</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>119.1977151859828</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>2682.668569017676</v>
       </c>
       <c r="X8" t="n">
-        <v>2388.358616186807</v>
+        <v>2309.202810756597</v>
       </c>
       <c r="Y8" t="n">
-        <v>2388.358616186807</v>
+        <v>1919.063478780785</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>541.9956044222747</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>723.6440692525144</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>723.6440692525144</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>723.6440692525144</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>723.6440692525144</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>723.6440692525144</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5030,58 @@
         <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805454</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>802.0403666355642</v>
       </c>
       <c r="M12" t="n">
-        <v>647.5155168583368</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N12" t="n">
-        <v>1451.927095122488</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>1074.392756563412</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>784.9755865264517</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>564.1830073829216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,25 +5261,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,16 +5355,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>436.8967109626374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>484.454538787846</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>484.454538787846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>334.3378993755102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>334.3378993755102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>334.3378993755102</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="V16" t="n">
-        <v>933.2366688293935</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="W16" t="n">
-        <v>933.2366688293935</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X16" t="n">
-        <v>705.2471179313761</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y16" t="n">
-        <v>484.454538787846</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5516,13 +5516,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168668</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5671,13 +5671,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5698,16 +5698,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765183</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>545.9992215018333</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
         <v>545.9992215018333</v>
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,16 +5738,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5768,13 +5768,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5783,16 +5783,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1003.751888060526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1003.751888060526</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>121.7597025423743</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5941,19 +5941,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011509</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583033</v>
+        <v>531.3977182706315</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>303.408167372614</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>303.408167372614</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>579.3570368996732</v>
+        <v>372.9624052601986</v>
       </c>
       <c r="C25" t="n">
-        <v>410.4208539717663</v>
+        <v>372.9624052601986</v>
       </c>
       <c r="D25" t="n">
-        <v>410.4208539717663</v>
+        <v>372.9624052601986</v>
       </c>
       <c r="E25" t="n">
-        <v>262.5077603893732</v>
+        <v>372.9624052601986</v>
       </c>
       <c r="F25" t="n">
-        <v>262.5077603893732</v>
+        <v>226.0724577622883</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>226.0724577622883</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.78763177146</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>1209.78763177146</v>
+        <v>844.0280401273989</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.78763177146</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="X25" t="n">
-        <v>981.798080873443</v>
+        <v>554.6108700904383</v>
       </c>
       <c r="Y25" t="n">
-        <v>761.0055017299129</v>
+        <v>554.6108700904383</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899877</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960284</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960284</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960284</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960284</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>128.9825097981181</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028587</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011509</v>
+        <v>786.082206476519</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952639</v>
+        <v>786.082206476519</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>496.6650364395584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>275.8724572960284</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,16 +6455,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,16 +6473,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899877</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.8783819731807</v>
+        <v>565.4200295030872</v>
       </c>
       <c r="C31" t="n">
-        <v>546.7030643266445</v>
+        <v>452.2447118565512</v>
       </c>
       <c r="D31" t="n">
-        <v>452.3472901956795</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430018</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252997</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818802</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894286</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386963</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220496</v>
+        <v>730.4517433652466</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.7659815220496</v>
+        <v>565.4200295030872</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6780,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,19 +7114,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1983.943432422806</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,25 +7397,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>417.5524109899877</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7728,25 +7728,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7828,10 +7828,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9495,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10920,7 +10920,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>197.4709870062151</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>42.16321409157743</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>5.429309302733316</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>14.45548819888984</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>142.9496361273602</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24181,13 +24181,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>113.2750516878533</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>131.7662611928259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24610,13 +24610,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>135.0458043089237</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338629</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>92.36953600124136</v>
       </c>
       <c r="E31" t="n">
-        <v>90.08647307386119</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>656833.4158914264</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="J2" t="n">
         <v>625646.4955803343</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803341</v>
-      </c>
       <c r="K2" t="n">
-        <v>650915.4197524321</v>
+        <v>650915.4197524315</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914279</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914273</v>
+        <v>656833.4158914279</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914278</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914279</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914274</v>
+        <v>656833.4158914279</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284565</v>
+        <v>44162.60530284563</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284563</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759684</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759184</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758888</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758811</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758824</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758785</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758218</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477238</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189641</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-155052.6805671466</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.198647398</v>
+        <v>434915.1986473978</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473982</v>
+        <v>434915.1986473979</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145465</v>
+        <v>7613.880338173562</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410419</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410415</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410414</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.3759410417</v>
+        <v>532773.9168150699</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484486</v>
+        <v>356350.6976224767</v>
       </c>
       <c r="K6" t="n">
-        <v>491172.1897145913</v>
+        <v>491153.6959766563</v>
       </c>
       <c r="L6" t="n">
-        <v>525568.822338638</v>
+        <v>525568.8223386393</v>
       </c>
       <c r="M6" t="n">
-        <v>401110.7139056685</v>
+        <v>401110.7139056691</v>
       </c>
       <c r="N6" t="n">
-        <v>535911.7291395057</v>
+        <v>535911.729139506</v>
       </c>
       <c r="O6" t="n">
-        <v>535911.7291395057</v>
+        <v>535911.7291395061</v>
       </c>
       <c r="P6" t="n">
-        <v>491749.1238366601</v>
+        <v>491749.1238366606</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,34 +26738,34 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>338.7761146022503</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.71883751841457</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>138.6926401485343</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.2558333115945</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>363.2563429523548</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>67.89913606654744</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634981</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>15.84001552480919</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>87.32913021289907</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.14268579427118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>281.8418084375971</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.181366198783508e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>91.88325107529209</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31613,7 +31613,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
@@ -31622,7 +31622,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31753,46 +31753,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,43 +31832,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>353.0329386354463</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O12" t="n">
-        <v>108.5686435537649</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,43 +31914,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N13" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>48.48571443651693</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508805</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811293</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>100.3638583181984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,25 +32698,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>91.84465193776708</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647499</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>380.4309478731436</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>380.4309478731436</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>256.9624847376525</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,28 +33734,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>379.0732128071263</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -33992,7 +33992,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4309478731436</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>585.3189041590313</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O12" t="n">
-        <v>359.83471838605</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>175.1095124747365</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111007</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116979</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>332.6498238417834</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556547</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,16 +36288,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>343.1107267700522</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36613,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>728.4316101333638</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>728.4316101333638</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>441.4508459632594</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>592.1206839096353</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>702.6442426351078</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>728.4316101333638</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
